--- a/app/resources/progress_to_date.xlsx
+++ b/app/resources/progress_to_date.xlsx
@@ -410,13 +410,12 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -435,32 +434,148 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF9C0006"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -505,12 +620,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -696,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,6 +855,57 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -735,19 +916,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,7 +932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,7 +952,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,11 +964,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,15 +980,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,23 +988,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="37" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="20" xfId="37" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="37" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,135 +1020,119 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="13" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,35 +1140,70 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="37" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1014,6 +1214,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1024,6 +1226,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1034,6 +1238,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1044,6 +1250,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1054,6 +1262,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1064,6 +1274,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1074,6 +1286,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1084,6 +1298,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1094,6 +1310,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1104,6 +1322,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1114,6 +1334,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1124,6 +1346,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1137,28 +1361,28 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFCC"/>
       <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1169,12 +1393,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
@@ -1185,9 +1409,9 @@
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF9C6500"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1431,10 +1655,10 @@
   </sheetPr>
   <dimension ref="A1:CL237"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AO1" activeCellId="0" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="AR1" activeCellId="0" sqref="AR1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
